--- a/medicine/Sexualité et sexologie/Immunocontraception/Immunocontraception.xlsx
+++ b/medicine/Sexualité et sexologie/Immunocontraception/Immunocontraception.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'immunocontraception est l'utilisation du système immunitaire d'un animal pour l'empêcher de fertiliser sa progéniture, en le stimulant de manière artificielle. Les contraceptifs de ce type ne sont actuellement pas disponibles pour un usage humain, seulement pour les animaux de type mammifère. Typiquement, l'immunocontraception implique l'administration d'un vaccin qui induit une réponse immunitaire adaptative qui rend un animal temporairement infertile. Les vaccins contraceptifs ont été utilisés dans de nombreux contextes pour le contrôle des populations d'animaux sauvages[1]. Cependant, les experts dans le domaine pensent que des innovations majeures sont nécessaires avant que l'immunocontraception puisse devenir une forme pratique de contraception pour les êtres humains[2]. La recherche vaccinale contraceptive chez l'humain existe et fait l'objet de rapport à l'OMS[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'immunocontraception est l'utilisation du système immunitaire d'un animal pour l'empêcher de fertiliser sa progéniture, en le stimulant de manière artificielle. Les contraceptifs de ce type ne sont actuellement pas disponibles pour un usage humain, seulement pour les animaux de type mammifère. Typiquement, l'immunocontraception implique l'administration d'un vaccin qui induit une réponse immunitaire adaptative qui rend un animal temporairement infertile. Les vaccins contraceptifs ont été utilisés dans de nombreux contextes pour le contrôle des populations d'animaux sauvages. Cependant, les experts dans le domaine pensent que des innovations majeures sont nécessaires avant que l'immunocontraception puisse devenir une forme pratique de contraception pour les êtres humains. La recherche vaccinale contraceptive chez l'humain existe et fait l'objet de rapport à l'OMS.
 </t>
         </is>
       </c>
@@ -511,11 +523,48 @@
           <t>Vaccins pour l'animal de type mammifère</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'à présent, l'immunocontraception s'est concentrée sur les mammifères exclusivement. Il existe plusieurs cibles dans la reproduction sexuée des mammifères pour l'inhibition immunitaire. Ils peuvent être organisés en trois catégories[4].
-Production de gamètes
-Les organismes qui subissent une reproduction sexuée doivent d'abord produire des gamètes, cellules qui ont la moitié du nombre typique de chromosomes de l'espèce. Souvent, l'immunité qui empêche la production de gamètes inhibe également les caractères sexuels secondaires et a donc des effets similaires à la castration[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'à présent, l'immunocontraception s'est concentrée sur les mammifères exclusivement. Il existe plusieurs cibles dans la reproduction sexuée des mammifères pour l'inhibition immunitaire. Ils peuvent être organisés en trois catégories.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Immunocontraception</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Immunocontraception</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vaccins pour l'animal de type mammifère</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Production de gamètes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les organismes qui subissent une reproduction sexuée doivent d'abord produire des gamètes, cellules qui ont la moitié du nombre typique de chromosomes de l'espèce. Souvent, l'immunité qui empêche la production de gamètes inhibe également les caractères sexuels secondaires et a donc des effets similaires à la castration,.
 </t>
         </is>
       </c>
